--- a/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B4858DC2-7D0E-4ED8-9365-5F8E8F92BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41952EC4-F021-4482-BCE1-FFD8C60CB061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6254,10 +6254,10 @@
   <dimension ref="A1:AO343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="AA154" sqref="AA154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41952EC4-F021-4482-BCE1-FFD8C60CB061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A1579-1E38-409D-A047-03A8432389B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6254,10 +6254,10 @@
   <dimension ref="A1:AO343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C246" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA154" sqref="AA154"/>
+      <selection pane="bottomRight" activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A1579-1E38-409D-A047-03A8432389B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB355B-A44C-4319-992C-5E776148F7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6254,10 +6254,10 @@
   <dimension ref="A1:AO343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B275" sqref="B275"/>
+      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6275,6 +6275,8 @@
     <col min="14" max="14" width="16.125" customWidth="1"/>
     <col min="15" max="15" width="14.375" customWidth="1"/>
     <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
     <col min="28" max="28" width="15.125" customWidth="1"/>
     <col min="29" max="29" width="10.875" customWidth="1"/>
@@ -22078,7 +22080,7 @@
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
+      <c r="A126" s="11">
         <v>123</v>
       </c>
       <c r="B126" s="7" t="s">
@@ -22967,7 +22969,7 @@
       </c>
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
+      <c r="A133" s="11">
         <v>130</v>
       </c>
       <c r="B133" s="7" t="s">
@@ -24110,7 +24112,7 @@
       </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
+      <c r="A142" s="11">
         <v>139</v>
       </c>
       <c r="B142" s="7" t="s">

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Spec_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB355B-A44C-4319-992C-5E776148F7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{607CC5F7-9EC6-4A52-AD8E-D56AAB06C92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Spec_Data" sheetId="1" r:id="rId1"/>
@@ -6254,10 +6254,10 @@
   <dimension ref="A1:AO343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
+      <selection pane="bottomRight" activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36833,7 +36833,7 @@
         <v>759</v>
       </c>
       <c r="G242" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242" s="9">
         <v>0</v>
@@ -37341,7 +37341,7 @@
         <v>759</v>
       </c>
       <c r="G246" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246" s="9">
         <v>0</v>
@@ -37468,7 +37468,7 @@
         <v>759</v>
       </c>
       <c r="G247" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247" s="9">
         <v>0</v>
@@ -41024,7 +41024,7 @@
         <v>759</v>
       </c>
       <c r="G275" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275" s="9">
         <v>0</v>
